--- a/data/pca/factorExposure/factorExposure_2012-11-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-11-23.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001242404636374142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002117798149713506</v>
+      </c>
+      <c r="C2">
+        <v>-0.03085234859980206</v>
+      </c>
+      <c r="D2">
+        <v>0.00406804119405466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0009204825030114014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006768972437361722</v>
+      </c>
+      <c r="C4">
+        <v>-0.08303665944496887</v>
+      </c>
+      <c r="D4">
+        <v>0.07556546861707951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0003683565841088866</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01447965618896694</v>
+      </c>
+      <c r="C6">
+        <v>-0.1144483850039042</v>
+      </c>
+      <c r="D6">
+        <v>0.03407602476545462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001696596103782078</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004682986575471976</v>
+      </c>
+      <c r="C7">
+        <v>-0.05783551719127036</v>
+      </c>
+      <c r="D7">
+        <v>0.03145050630658239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0002736151716921393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.00588870012466978</v>
+      </c>
+      <c r="C8">
+        <v>-0.03701832230728297</v>
+      </c>
+      <c r="D8">
+        <v>0.03993197282597088</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003843491949155434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004840039374264535</v>
+      </c>
+      <c r="C9">
+        <v>-0.0704639674389247</v>
+      </c>
+      <c r="D9">
+        <v>0.07317546788025397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.002126378751040645</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005501442216174282</v>
+      </c>
+      <c r="C10">
+        <v>-0.05755659204893618</v>
+      </c>
+      <c r="D10">
+        <v>-0.1971710369921597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003084516946732299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005840909808853128</v>
+      </c>
+      <c r="C11">
+        <v>-0.07984053780543526</v>
+      </c>
+      <c r="D11">
+        <v>0.06028077427018309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0003039041536135299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004130536791288231</v>
+      </c>
+      <c r="C12">
+        <v>-0.0640828585314191</v>
+      </c>
+      <c r="D12">
+        <v>0.04705294360090162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.001817285423914678</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008830300573632308</v>
+      </c>
+      <c r="C13">
+        <v>-0.06941100336210392</v>
+      </c>
+      <c r="D13">
+        <v>0.0575269389922313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001685608733349989</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.00112657318758384</v>
+      </c>
+      <c r="C14">
+        <v>-0.0438447808611924</v>
+      </c>
+      <c r="D14">
+        <v>0.006512611458751098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0004892397336908359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006002085242209033</v>
+      </c>
+      <c r="C15">
+        <v>-0.04150782320173191</v>
+      </c>
+      <c r="D15">
+        <v>0.03069284511951331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0008870594996004794</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005104813480276464</v>
+      </c>
+      <c r="C16">
+        <v>-0.06443153710678348</v>
+      </c>
+      <c r="D16">
+        <v>0.05174607346911213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0006530940780234182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008602780358154564</v>
+      </c>
+      <c r="C20">
+        <v>-0.06551106466177037</v>
+      </c>
+      <c r="D20">
+        <v>0.04294675613227371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005711561753134755</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009654413276964167</v>
+      </c>
+      <c r="C21">
+        <v>-0.02117203893131253</v>
+      </c>
+      <c r="D21">
+        <v>0.03892215075923399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01638968213180112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.00617310329866616</v>
+      </c>
+      <c r="C22">
+        <v>-0.09331879127745417</v>
+      </c>
+      <c r="D22">
+        <v>0.1147867344581724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01672006721144636</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.005987671531991934</v>
+      </c>
+      <c r="C23">
+        <v>-0.09413961703914286</v>
+      </c>
+      <c r="D23">
+        <v>0.1147336524647292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.002365153096329038</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005593715035960753</v>
+      </c>
+      <c r="C24">
+        <v>-0.0769224904102354</v>
+      </c>
+      <c r="D24">
+        <v>0.06476722296035793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.004837979206364664</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003187278872521371</v>
+      </c>
+      <c r="C25">
+        <v>-0.07796951227549027</v>
+      </c>
+      <c r="D25">
+        <v>0.06622737299063769</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.003728511763830694</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003635365981815693</v>
+      </c>
+      <c r="C26">
+        <v>-0.04072363975999739</v>
+      </c>
+      <c r="D26">
+        <v>0.0214787436333841</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.0056496205768304</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0009517463234207151</v>
+      </c>
+      <c r="C28">
+        <v>-0.107132631909501</v>
+      </c>
+      <c r="D28">
+        <v>-0.3201713438203417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001106538663070607</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003056116012314904</v>
+      </c>
+      <c r="C29">
+        <v>-0.04961388791074671</v>
+      </c>
+      <c r="D29">
+        <v>0.00891573658323635</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.003611529731669988</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.01001223696096394</v>
+      </c>
+      <c r="C30">
+        <v>-0.1416542870122405</v>
+      </c>
+      <c r="D30">
+        <v>0.1041493994681507</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.000861116923291805</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006317962736188684</v>
+      </c>
+      <c r="C31">
+        <v>-0.04430316685679176</v>
+      </c>
+      <c r="D31">
+        <v>0.02903422119000912</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0002058873743793998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004028164828367598</v>
+      </c>
+      <c r="C32">
+        <v>-0.03835278709951722</v>
+      </c>
+      <c r="D32">
+        <v>0.02384101342138764</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.002405669058004281</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008717451467696313</v>
+      </c>
+      <c r="C33">
+        <v>-0.08663167671785298</v>
+      </c>
+      <c r="D33">
+        <v>0.06493840641182147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004796696371598642</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004064186308983783</v>
+      </c>
+      <c r="C34">
+        <v>-0.05741759415626863</v>
+      </c>
+      <c r="D34">
+        <v>0.05381163673683097</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0003693723854824044</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005060198286113164</v>
+      </c>
+      <c r="C35">
+        <v>-0.03985930785811147</v>
+      </c>
+      <c r="D35">
+        <v>0.01876774510260439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004070343851175945</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001082381129704852</v>
+      </c>
+      <c r="C36">
+        <v>-0.025398144740478</v>
+      </c>
+      <c r="D36">
+        <v>0.02175773192858613</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.001395837696529586</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009166671333814005</v>
+      </c>
+      <c r="C38">
+        <v>-0.03404405775778933</v>
+      </c>
+      <c r="D38">
+        <v>0.01487801594239917</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01351621542546127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0007466115334073455</v>
+      </c>
+      <c r="C39">
+        <v>-0.1155101433727706</v>
+      </c>
+      <c r="D39">
+        <v>0.07496332062997274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009294902623000997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.003024844448975102</v>
+      </c>
+      <c r="C40">
+        <v>-0.09066355334522502</v>
+      </c>
+      <c r="D40">
+        <v>0.0126172017720609</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.001083266761056225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007353939688751894</v>
+      </c>
+      <c r="C41">
+        <v>-0.03776503832264043</v>
+      </c>
+      <c r="D41">
+        <v>0.0384846433097261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003533265318468014</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004006097814152313</v>
+      </c>
+      <c r="C43">
+        <v>-0.05336924952390151</v>
+      </c>
+      <c r="D43">
+        <v>0.02445967375772145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.01580339928814049</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.00304945090300231</v>
+      </c>
+      <c r="C44">
+        <v>-0.1095464887076049</v>
+      </c>
+      <c r="D44">
+        <v>0.06690335577939935</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.000513164952234127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.001842675075097402</v>
+      </c>
+      <c r="C46">
+        <v>-0.0327815570600084</v>
+      </c>
+      <c r="D46">
+        <v>0.03520673262159233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.000367710876498813</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002583552282486754</v>
+      </c>
+      <c r="C47">
+        <v>-0.03690819426778358</v>
+      </c>
+      <c r="D47">
+        <v>0.02296931420459943</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.004398808608085695</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006769748593283022</v>
+      </c>
+      <c r="C48">
+        <v>-0.0310867862105824</v>
+      </c>
+      <c r="D48">
+        <v>0.03271342532300978</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01135520909623687</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01608544321416621</v>
+      </c>
+      <c r="C49">
+        <v>-0.182981618525462</v>
+      </c>
+      <c r="D49">
+        <v>0.01415889813166852</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001524577916017041</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003774477338975342</v>
+      </c>
+      <c r="C50">
+        <v>-0.04327913726868463</v>
+      </c>
+      <c r="D50">
+        <v>0.03721123182684744</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.001087806199167261</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004758105112793711</v>
+      </c>
+      <c r="C51">
+        <v>-0.02573013835756002</v>
+      </c>
+      <c r="D51">
+        <v>0.02136874655444075</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0004688432501936022</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02114789137273915</v>
+      </c>
+      <c r="C53">
+        <v>-0.1697969896604468</v>
+      </c>
+      <c r="D53">
+        <v>0.02702702528705415</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001813848138113032</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008973035908575233</v>
+      </c>
+      <c r="C54">
+        <v>-0.05506432777502907</v>
+      </c>
+      <c r="D54">
+        <v>0.04417790503649271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.004698761354931448</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009405539578619979</v>
+      </c>
+      <c r="C55">
+        <v>-0.1104322308600089</v>
+      </c>
+      <c r="D55">
+        <v>0.03857186828381507</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001249842789016928</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02032466057564626</v>
+      </c>
+      <c r="C56">
+        <v>-0.1738633275856717</v>
+      </c>
+      <c r="D56">
+        <v>0.01888401180938834</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.008494383441047174</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.0193693537292976</v>
+      </c>
+      <c r="C58">
+        <v>-0.1094347198986158</v>
+      </c>
+      <c r="D58">
+        <v>0.06314043760211832</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.007451250979921482</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01003182280587888</v>
+      </c>
+      <c r="C59">
+        <v>-0.1649897947500895</v>
+      </c>
+      <c r="D59">
+        <v>-0.3304293198093986</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.003621978778490861</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02502057664782127</v>
+      </c>
+      <c r="C60">
+        <v>-0.2230971841690066</v>
+      </c>
+      <c r="D60">
+        <v>0.0306770710787088</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01465016273857757</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001633122557872718</v>
+      </c>
+      <c r="C61">
+        <v>-0.09441102478666254</v>
+      </c>
+      <c r="D61">
+        <v>0.0570151734251829</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1607436364226612</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1468968558136465</v>
+      </c>
+      <c r="C62">
+        <v>-0.09300485011796857</v>
+      </c>
+      <c r="D62">
+        <v>0.03811744135354013</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0002331591351655457</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006631668460356812</v>
+      </c>
+      <c r="C63">
+        <v>-0.05477699480786798</v>
+      </c>
+      <c r="D63">
+        <v>0.02600633397364653</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0007493846923449118</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01513896148123741</v>
+      </c>
+      <c r="C64">
+        <v>-0.105982572390142</v>
+      </c>
+      <c r="D64">
+        <v>0.06051652387119465</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.002664937255572862</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01796905975353345</v>
+      </c>
+      <c r="C65">
+        <v>-0.1245226430649846</v>
+      </c>
+      <c r="D65">
+        <v>0.0245393080006019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007791706303382436</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01331420193107409</v>
+      </c>
+      <c r="C66">
+        <v>-0.1599595870081332</v>
+      </c>
+      <c r="D66">
+        <v>0.1126217648036334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003286057823850784</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01556284822913975</v>
+      </c>
+      <c r="C67">
+        <v>-0.06518777693643814</v>
+      </c>
+      <c r="D67">
+        <v>0.0266378623691361</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.005621772498665376</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001085523604638493</v>
+      </c>
+      <c r="C68">
+        <v>-0.08662096214700299</v>
+      </c>
+      <c r="D68">
+        <v>-0.2617288486162313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.00196901270996428</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005994004157510395</v>
+      </c>
+      <c r="C69">
+        <v>-0.05074484630224433</v>
+      </c>
+      <c r="D69">
+        <v>0.03815934146512642</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-1.545637162486607e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001796179455421603</v>
+      </c>
+      <c r="C70">
+        <v>-0.002786066425077984</v>
+      </c>
+      <c r="D70">
+        <v>0.0007636863332565396</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0003057028002545901</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006004186042805251</v>
+      </c>
+      <c r="C71">
+        <v>-0.09377358046933799</v>
+      </c>
+      <c r="D71">
+        <v>-0.3039182257817561</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003924503098886621</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01644702578243964</v>
+      </c>
+      <c r="C72">
+        <v>-0.1530764220307244</v>
+      </c>
+      <c r="D72">
+        <v>0.01485397069712309</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01262261837456685</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03159348468399705</v>
+      </c>
+      <c r="C73">
+        <v>-0.2811505341026938</v>
+      </c>
+      <c r="D73">
+        <v>0.0572721107610615</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005654836270118141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002048470307541533</v>
+      </c>
+      <c r="C74">
+        <v>-0.1042433875488241</v>
+      </c>
+      <c r="D74">
+        <v>0.03377069017377098</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.003527923401282925</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01139113924063444</v>
+      </c>
+      <c r="C75">
+        <v>-0.1247244734958239</v>
+      </c>
+      <c r="D75">
+        <v>0.0214866467856369</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.007027316806159059</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02222731845231419</v>
+      </c>
+      <c r="C76">
+        <v>-0.1487871553985307</v>
+      </c>
+      <c r="D76">
+        <v>0.05755927707278567</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.003693998413455058</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02210131113897742</v>
+      </c>
+      <c r="C77">
+        <v>-0.1187237722741729</v>
+      </c>
+      <c r="D77">
+        <v>0.08537443047372052</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0009509014526345859</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.0151411904195433</v>
+      </c>
+      <c r="C78">
+        <v>-0.09693932917238986</v>
+      </c>
+      <c r="D78">
+        <v>0.07186419529642471</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02342927881344913</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.0381253357384689</v>
+      </c>
+      <c r="C79">
+        <v>-0.1574380300794646</v>
+      </c>
+      <c r="D79">
+        <v>0.03125428395737437</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.005150799413170228</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01006266566676553</v>
+      </c>
+      <c r="C80">
+        <v>-0.03965218769009121</v>
+      </c>
+      <c r="D80">
+        <v>0.02843085727517082</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0008983818959262182</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01620913192223832</v>
+      </c>
+      <c r="C81">
+        <v>-0.1289211282353859</v>
+      </c>
+      <c r="D81">
+        <v>0.04075170027190212</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.003322662840235059</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01997137610324179</v>
+      </c>
+      <c r="C82">
+        <v>-0.141396782350086</v>
+      </c>
+      <c r="D82">
+        <v>0.03606914439068801</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.007134663447009251</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01011536294387186</v>
+      </c>
+      <c r="C83">
+        <v>-0.05550719184264592</v>
+      </c>
+      <c r="D83">
+        <v>0.05433015767329525</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01179855753906133</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01153622751576131</v>
+      </c>
+      <c r="C84">
+        <v>-0.03715682284896969</v>
+      </c>
+      <c r="D84">
+        <v>-0.002547269592132609</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01316841390735825</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02909304806325467</v>
+      </c>
+      <c r="C85">
+        <v>-0.1253923805569069</v>
+      </c>
+      <c r="D85">
+        <v>0.04337726958590157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.002235104892530618</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005112968991460876</v>
+      </c>
+      <c r="C86">
+        <v>-0.04969087500691385</v>
+      </c>
+      <c r="D86">
+        <v>0.03030500720657913</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.003734552446041659</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01095684510523939</v>
+      </c>
+      <c r="C87">
+        <v>-0.1288306011785195</v>
+      </c>
+      <c r="D87">
+        <v>0.0727198616019922</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01102063762524062</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002651762718872806</v>
+      </c>
+      <c r="C88">
+        <v>-0.06527134518387134</v>
+      </c>
+      <c r="D88">
+        <v>0.01919711542948561</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01346423224178717</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001357839627545733</v>
+      </c>
+      <c r="C89">
+        <v>-0.1470719219881379</v>
+      </c>
+      <c r="D89">
+        <v>-0.3294732299605777</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.001144718145902363</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.00691683083505524</v>
+      </c>
+      <c r="C90">
+        <v>-0.1206753566771736</v>
+      </c>
+      <c r="D90">
+        <v>-0.3167898202828898</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006291922631821399</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01060593132119601</v>
+      </c>
+      <c r="C91">
+        <v>-0.1004205114040559</v>
+      </c>
+      <c r="D91">
+        <v>0.02252619709737075</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008557114039052354</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001146558083995658</v>
+      </c>
+      <c r="C92">
+        <v>-0.1366096386955871</v>
+      </c>
+      <c r="D92">
+        <v>-0.3232256395729192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0004410432216409166</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005207112900401754</v>
+      </c>
+      <c r="C93">
+        <v>-0.1059040424628247</v>
+      </c>
+      <c r="D93">
+        <v>-0.3010324368035784</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.002450438683701293</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02267710334496822</v>
+      </c>
+      <c r="C94">
+        <v>-0.1461920587680166</v>
+      </c>
+      <c r="D94">
+        <v>0.04992125146751813</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.002639711485294101</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01748464921137748</v>
+      </c>
+      <c r="C95">
+        <v>-0.1250058866257572</v>
+      </c>
+      <c r="D95">
+        <v>0.05845772773305018</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.0002720873597066518</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03672164869218842</v>
+      </c>
+      <c r="C97">
+        <v>-0.2138967184325153</v>
+      </c>
+      <c r="D97">
+        <v>-0.0104040983787958</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.002875091427759476</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.0375364009617625</v>
+      </c>
+      <c r="C98">
+        <v>-0.2496037752775067</v>
+      </c>
+      <c r="D98">
+        <v>0.04660876664272307</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9851731953714744</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9816735459783007</v>
+      </c>
+      <c r="C99">
+        <v>0.1188957838159249</v>
+      </c>
+      <c r="D99">
+        <v>-0.02640528326425785</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001031842892615604</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003096251838386356</v>
+      </c>
+      <c r="C101">
+        <v>-0.04975118440167006</v>
+      </c>
+      <c r="D101">
+        <v>0.009292489846398343</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
